--- a/biology/Zoologie/Euselasia_bilineata/Euselasia_bilineata.xlsx
+++ b/biology/Zoologie/Euselasia_bilineata/Euselasia_bilineata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia bilineata est une espèce de papillons de la famille des Riodinidae et du genre Euselasia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia bilineata a été nommée par Percy Ireland Lathy en 1926[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia bilineata a été nommée par Percy Ireland Lathy en 1926
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia bilineata est un papillon de couleur jaune orangé avec une bordure rouge marquée d'une ligne de discrets chevrons doublée d'une fine ligne rouge. Le revers est noir.
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,12 +617,49 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Euselasia bilineata est présent uniquement en Guyane[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia bilineata est présent uniquement en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euselasia_bilineata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_bilineata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
